--- a/data/case1/18/Qlm1_1.xlsx
+++ b/data/case1/18/Qlm1_1.xlsx
@@ -56,264 +56,264 @@
   <dimension ref="A1:B32"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="true"/>
-    <col min="2" max="2" width="16.42578125" customWidth="true"/>
+    <col min="1" max="1" width="15.42578125" customWidth="true"/>
+    <col min="2" max="2" width="15.42578125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>-0.13302087546681207</v>
+        <v>-0.09476902780640728</v>
       </c>
       <c r="B1" s="0">
-        <v>0.13264575333505491</v>
+        <v>0.094275394532772339</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.11744517072125316</v>
+        <v>-0.10737733275275918</v>
       </c>
       <c r="B2" s="0">
-        <v>0.11603393968274567</v>
+        <v>0.10591829089725557</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.066318251336936029</v>
+        <v>-0.11559457599656575</v>
       </c>
       <c r="B3" s="0">
-        <v>0.065923203174110157</v>
+        <v>0.11515636157261966</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.057923203253805511</v>
+        <v>-0.10715636160349007</v>
       </c>
       <c r="B4" s="0">
-        <v>0.057573200922785617</v>
+        <v>0.106766347044017</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.054573200962674484</v>
+        <v>-0.103766347060537</v>
       </c>
       <c r="B5" s="0">
-        <v>0.053393705754401388</v>
+        <v>0.10244854774759737</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.021317956698835516</v>
+        <v>-0.0031717058906064466</v>
       </c>
       <c r="B6" s="0">
-        <v>0.021220925357914311</v>
+        <v>0.0031320637154284015</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.011220925463385711</v>
+        <v>0.0068679362412327194</v>
       </c>
       <c r="B7" s="0">
-        <v>0.011210644053627927</v>
+        <v>-0.0068703572627875076</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.0012106441599333273</v>
+        <v>-0.031943374029884897</v>
       </c>
       <c r="B8" s="0">
-        <v>0.0012100221971671488</v>
+        <v>0.031658228601652461</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.00078997776520806084</v>
+        <v>-0.029658228620223159</v>
       </c>
       <c r="B9" s="0">
-        <v>-0.00079028767347510964</v>
+        <v>0.029418653062637468</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.0027902876366177054</v>
+        <v>-0.0274186530826519</v>
       </c>
       <c r="B10" s="0">
-        <v>-0.0027897587296354942</v>
+        <v>0.027402096268350107</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.005789758684326074</v>
+        <v>-0.0244020962917606</v>
       </c>
       <c r="B11" s="0">
-        <v>-0.0057904175996235097</v>
+        <v>0.024374867639466835</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.020861611628704591</v>
+        <v>-0.020874867664927077</v>
       </c>
       <c r="B12" s="0">
-        <v>0.020668708338050124</v>
+        <v>0.020675721527586344</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.017168708391079868</v>
+        <v>-0.017175721554456125</v>
       </c>
       <c r="B13" s="0">
-        <v>0.017081101956462064</v>
+        <v>0.017084857564388045</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.0090811020487011618</v>
+        <v>-0.0090848576062434461</v>
       </c>
       <c r="B14" s="0">
-        <v>0.0090527302641847385</v>
+        <v>0.0090550196316838694</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.0080527302973596449</v>
+        <v>-0.0080550196509809879</v>
       </c>
       <c r="B15" s="0">
-        <v>0.0080344321591452328</v>
+        <v>0.0080357355505631389</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.006034432201463602</v>
+        <v>-0.0060357355733562379</v>
       </c>
       <c r="B16" s="0">
-        <v>0.0060032939643996919</v>
+        <v>0.0060037478987751136</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.0040032940074157253</v>
+        <v>-0.0040037479218302252</v>
       </c>
       <c r="B17" s="0">
-        <v>0.0039999999397393182</v>
+        <v>0.0039999999703317357</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.0092005826661250012</v>
+        <v>0.019101938200147828</v>
       </c>
       <c r="B18" s="0">
-        <v>0.0091794746933580029</v>
+        <v>-0.019211077464245108</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.0051794747287794429</v>
+        <v>-0.012092114837048751</v>
       </c>
       <c r="B19" s="0">
-        <v>0.0050384166454837676</v>
+        <v>0.012017084742538486</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.0080162960919043513</v>
+        <v>-0.0080170847566716219</v>
       </c>
       <c r="B20" s="0">
-        <v>0.0080056846981229057</v>
+        <v>0.0080057293869160162</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0040056847353131531</v>
+        <v>-0.0040057294011912603</v>
       </c>
       <c r="B21" s="0">
-        <v>0.0039999999625512928</v>
+        <v>0.0039999999856084045</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.045715688388686004</v>
+        <v>0.013676285083427331</v>
       </c>
       <c r="B22" s="0">
-        <v>0.045501547340821347</v>
+        <v>-0.013964137296337498</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.040501547395021653</v>
+        <v>0.018964137277481363</v>
       </c>
       <c r="B23" s="0">
-        <v>0.040099440155578314</v>
+        <v>-0.01953999862276401</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.02009944034248079</v>
+        <v>-0.02009943012395432</v>
       </c>
       <c r="B24" s="0">
-        <v>0.019999999810634606</v>
+        <v>0.019999999932340806</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.030075749093157356</v>
+        <v>-0.09727684187458685</v>
       </c>
       <c r="B25" s="0">
-        <v>0.030004596529304095</v>
+        <v>0.097150172539102186</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.027504596571802153</v>
+        <v>-0.094650172559241241</v>
       </c>
       <c r="B26" s="0">
-        <v>0.027415453727961392</v>
+        <v>0.094487408752966573</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.024915453771404472</v>
+        <v>-0.091987408774524937</v>
       </c>
       <c r="B27" s="0">
-        <v>0.024402537453198203</v>
+        <v>0.091025994951676736</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.022402537496117425</v>
+        <v>-0.089025994977252054</v>
       </c>
       <c r="B28" s="0">
-        <v>0.022070247135991039</v>
+        <v>0.088367671991705699</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.015070247224014288</v>
+        <v>-0.081367672037636396</v>
       </c>
       <c r="B29" s="0">
-        <v>0.014984791119304397</v>
+        <v>0.081176600465624027</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.040154688312860731</v>
+        <v>-0.021176600686123148</v>
       </c>
       <c r="B30" s="0">
-        <v>-0.040422230098539291</v>
+        <v>0.021024744088222747</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.047422230016037403</v>
+        <v>-0.014024744137623557</v>
       </c>
       <c r="B31" s="0">
-        <v>-0.047505245567529997</v>
+        <v>0.014001512907075409</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.057505245461802801</v>
+        <v>-0.0040015129664272564</v>
       </c>
       <c r="B32" s="0">
-        <v>-0.057631305409735489</v>
+        <v>0.0039999999601025849</v>
       </c>
     </row>
   </sheetData>
